--- a/Archivos Excel/Credenciales - Portales.xlsx
+++ b/Archivos Excel/Credenciales - Portales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\CapacitacionDesarrollo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\CapacitacionDesarrollo\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45145810-D94F-4404-A004-CE74AC9A7A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27494B88-DD83-461C-9367-8AF821BEBF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C30447A1-1B82-468F-95A4-B687C3F712A1}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
   <si>
     <t>Rubro</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Intermex202201</t>
+  </si>
+  <si>
+    <t>Intermex.2022&amp;</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +586,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/Archivos Excel/Credenciales - Portales.xlsx
+++ b/Archivos Excel/Credenciales - Portales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\CapacitacionDesarrollo\Archivos Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\CapacitacionDesarrollo\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27494B88-DD83-461C-9367-8AF821BEBF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E38733-D603-415A-AE29-9581316EC58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C30447A1-1B82-468F-95A4-B687C3F712A1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$23</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -144,9 +142,6 @@
     <t>P3632_1</t>
   </si>
   <si>
-    <t>HEB202201</t>
-  </si>
-  <si>
     <t>https://proveedores.liverpool.com.mx/irj/portal</t>
   </si>
   <si>
@@ -171,13 +166,16 @@
     <t>dist-intermex</t>
   </si>
   <si>
-    <t>Intermex.1123</t>
-  </si>
-  <si>
     <t>Intermex202201</t>
   </si>
   <si>
     <t>Intermex.2022&amp;</t>
+  </si>
+  <si>
+    <t>HEB202202</t>
+  </si>
+  <si>
+    <t>15%&amp;amp;Mar.22</t>
   </si>
 </sst>
 </file>
@@ -535,11 +533,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EB8524-2A96-4355-9E6C-C92FB5BDEC40}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -586,10 +585,10 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -606,7 +605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -620,10 +619,10 @@
         <v>600787</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -640,7 +639,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -654,10 +653,10 @@
         <v>34</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -665,13 +664,13 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -682,16 +681,16 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -716,16 +715,16 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -739,10 +738,10 @@
         <v>600787</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -759,7 +758,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -773,10 +772,10 @@
         <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -793,7 +792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,16 +800,16 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -830,7 +829,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -847,7 +846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -861,10 +860,10 @@
         <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,7 +880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -898,7 +897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -912,10 +911,10 @@
         <v>600787</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,17 +939,23 @@
         <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F23" xr:uid="{90EB8524-2A96-4355-9E6C-C92FB5BDEC40}"/>
+  <autoFilter ref="A1:F23" xr:uid="{90EB8524-2A96-4355-9E6C-C92FB5BDEC40}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Chedraui"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Archivos Excel/Credenciales - Portales.xlsx
+++ b/Archivos Excel/Credenciales - Portales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\CapacitacionDesarrollo\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E38733-D603-415A-AE29-9581316EC58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB8B40FD-7E86-4CA6-B348-FCFF50F7D621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C30447A1-1B82-468F-95A4-B687C3F712A1}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -94,9 +95,6 @@
     <t>jggrajalesd@televisa.com.mx</t>
   </si>
   <si>
-    <t>Noviembre$14572</t>
-  </si>
-  <si>
     <t>wgorozcop@televisa.com.mx</t>
   </si>
   <si>
@@ -166,24 +164,35 @@
     <t>dist-intermex</t>
   </si>
   <si>
-    <t>Intermex202201</t>
-  </si>
-  <si>
     <t>Intermex.2022&amp;</t>
   </si>
   <si>
-    <t>HEB202202</t>
-  </si>
-  <si>
-    <t>15%&amp;amp;Mar.22</t>
+    <t>15%&amp;Mar.22</t>
+  </si>
+  <si>
+    <t>HEB032022</t>
+  </si>
+  <si>
+    <t>Intermex202204</t>
+  </si>
+  <si>
+    <t>Diciembre$14572</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -211,12 +220,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -538,7 +550,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +580,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -582,10 +594,10 @@
         <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -596,16 +608,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -619,7 +631,7 @@
         <v>600787</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -630,13 +642,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -647,13 +659,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -664,16 +676,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -681,13 +693,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -703,11 +715,11 @@
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -715,16 +727,17 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -738,7 +751,7 @@
         <v>600787</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -749,13 +762,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -766,13 +779,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -783,13 +796,13 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -800,13 +813,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -817,16 +830,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -840,10 +853,10 @@
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -854,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -871,13 +884,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -891,13 +904,13 @@
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -911,7 +924,7 @@
         <v>600787</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
@@ -922,16 +935,16 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -939,20 +952,20 @@
         <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E23" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F23" xr:uid="{90EB8524-2A96-4355-9E6C-C92FB5BDEC40}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Chedraui"/>
+        <filter val="Sanborns"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Archivos Excel/Credenciales - Portales.xlsx
+++ b/Archivos Excel/Credenciales - Portales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\CapacitacionDesarrollo\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB8B40FD-7E86-4CA6-B348-FCFF50F7D621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F11A6AD-0C64-48BF-9474-9F20C91AA901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C30447A1-1B82-468F-95A4-B687C3F712A1}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -164,19 +163,19 @@
     <t>dist-intermex</t>
   </si>
   <si>
-    <t>Intermex.2022&amp;</t>
-  </si>
-  <si>
-    <t>15%&amp;Mar.22</t>
-  </si>
-  <si>
     <t>HEB032022</t>
   </si>
   <si>
     <t>Intermex202204</t>
   </si>
   <si>
-    <t>Diciembre$14572</t>
+    <t>Enero$14572</t>
+  </si>
+  <si>
+    <t>18%&amp;Abr.22</t>
+  </si>
+  <si>
+    <t>Intermex.2022&amp;2</t>
   </si>
 </sst>
 </file>
@@ -545,12 +544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EB8524-2A96-4355-9E6C-C92FB5BDEC40}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -597,10 +595,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -631,10 +629,10 @@
         <v>600787</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -651,7 +649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -665,10 +663,10 @@
         <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -685,7 +683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -702,7 +700,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -716,10 +714,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -733,7 +731,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -751,10 +749,10 @@
         <v>600787</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -771,7 +769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -785,10 +783,10 @@
         <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -805,7 +803,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,7 +820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,7 +840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,7 +857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,10 +871,10 @@
         <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,7 +891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
@@ -924,10 +922,10 @@
         <v>600787</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -944,7 +942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,17 +956,11 @@
         <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F23" xr:uid="{90EB8524-2A96-4355-9E6C-C92FB5BDEC40}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Sanborns"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F23" xr:uid="{90EB8524-2A96-4355-9E6C-C92FB5BDEC40}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Archivos Excel/Credenciales - Portales.xlsx
+++ b/Archivos Excel/Credenciales - Portales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\CapacitacionDesarrollo\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F11A6AD-0C64-48BF-9474-9F20C91AA901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA9FC7D-8764-4D9F-A7DD-817B1600B09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C30447A1-1B82-468F-95A4-B687C3F712A1}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
   <si>
     <t>Rubro</t>
   </si>
@@ -176,6 +177,9 @@
   </si>
   <si>
     <t>Intermex.2022&amp;2</t>
+  </si>
+  <si>
+    <t>p005321896</t>
   </si>
 </sst>
 </file>
@@ -548,7 +552,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +684,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/Archivos Excel/Credenciales - Portales.xlsx
+++ b/Archivos Excel/Credenciales - Portales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\CapacitacionDesarrollo\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA9FC7D-8764-4D9F-A7DD-817B1600B09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB80C3AE-5B6F-4627-99E3-2A3DA5537177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C30447A1-1B82-468F-95A4-B687C3F712A1}"/>
   </bookViews>
@@ -164,22 +164,22 @@
     <t>dist-intermex</t>
   </si>
   <si>
-    <t>HEB032022</t>
-  </si>
-  <si>
     <t>Intermex202204</t>
   </si>
   <si>
     <t>Enero$14572</t>
   </si>
   <si>
-    <t>18%&amp;Abr.22</t>
-  </si>
-  <si>
     <t>Intermex.2022&amp;2</t>
   </si>
   <si>
     <t>p005321896</t>
+  </si>
+  <si>
+    <t>18%&amp;Abr.23</t>
+  </si>
+  <si>
+    <t>Intermex.0522</t>
   </si>
 </sst>
 </file>
@@ -223,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -232,6 +232,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -548,11 +551,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EB8524-2A96-4355-9E6C-C92FB5BDEC40}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,7 +602,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -633,7 +636,7 @@
         <v>600787</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -667,7 +670,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -684,7 +687,7 @@
         <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -718,7 +721,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -735,7 +738,7 @@
         <v>41</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="3"/>
     </row>
@@ -752,8 +755,8 @@
       <c r="D11" s="2">
         <v>600787</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
+      <c r="E11" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -787,7 +790,7 @@
         <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -926,7 +929,7 @@
         <v>600787</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,8 +963,11 @@
         <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F23" xr:uid="{90EB8524-2A96-4355-9E6C-C92FB5BDEC40}"/>

--- a/Archivos Excel/Credenciales - Portales.xlsx
+++ b/Archivos Excel/Credenciales - Portales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\CapacitacionDesarrollo\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB80C3AE-5B6F-4627-99E3-2A3DA5537177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46114B8C-963F-4389-8CC5-B28C0DA8F3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C30447A1-1B82-468F-95A4-B687C3F712A1}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$23</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
   <si>
     <t>Rubro</t>
   </si>
@@ -98,9 +97,6 @@
     <t>wgorozcop@televisa.com.mx</t>
   </si>
   <si>
-    <t>Intermex031221&amp;</t>
-  </si>
-  <si>
     <t>https://clients.edicomgroup.com/ediwin-asp-access.htm</t>
   </si>
   <si>
@@ -146,9 +142,6 @@
     <t>P00051133</t>
   </si>
   <si>
-    <t>p005321895</t>
-  </si>
-  <si>
     <t>https://portal-financiero.chedraui.com.mx/#/account/login</t>
   </si>
   <si>
@@ -164,22 +157,22 @@
     <t>dist-intermex</t>
   </si>
   <si>
-    <t>Intermex202204</t>
-  </si>
-  <si>
     <t>Enero$14572</t>
   </si>
   <si>
-    <t>Intermex.2022&amp;2</t>
-  </si>
-  <si>
-    <t>p005321896</t>
-  </si>
-  <si>
     <t>18%&amp;Abr.23</t>
   </si>
   <si>
     <t>Intermex.0522</t>
+  </si>
+  <si>
+    <t>Intermex202206</t>
+  </si>
+  <si>
+    <t>p005321897</t>
+  </si>
+  <si>
+    <t>Televisa&amp;202206</t>
   </si>
 </sst>
 </file>
@@ -223,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -236,6 +229,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,11 +547,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EB8524-2A96-4355-9E6C-C92FB5BDEC40}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -602,10 +599,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -613,16 +610,16 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -635,11 +632,11 @@
       <c r="D4" s="2">
         <v>600787</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -647,16 +644,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -664,16 +661,16 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -681,16 +678,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -698,13 +695,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -721,10 +718,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -732,17 +729,17 @@
         <v>15</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -755,11 +752,11 @@
       <c r="D11" s="2">
         <v>600787</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -767,16 +764,16 @@
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -784,16 +781,16 @@
         <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,16 +798,16 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,13 +815,13 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,16 +832,16 @@
         <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -861,10 +858,10 @@
         <v>19</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,16 +869,16 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -912,10 +909,10 @@
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,11 +925,11 @@
       <c r="D21" s="2">
         <v>600787</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -940,16 +937,16 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,20 +954,26 @@
         <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E24" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F23" xr:uid="{90EB8524-2A96-4355-9E6C-C92FB5BDEC40}"/>
+  <autoFilter ref="A1:F23" xr:uid="{90EB8524-2A96-4355-9E6C-C92FB5BDEC40}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Walmart"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Archivos Excel/Credenciales - Portales.xlsx
+++ b/Archivos Excel/Credenciales - Portales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\CapacitacionDesarrollo\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46114B8C-963F-4389-8CC5-B28C0DA8F3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB97D7-64FC-40DE-9B38-A539F9604A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C30447A1-1B82-468F-95A4-B687C3F712A1}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     <t>dist-intermex</t>
   </si>
   <si>
-    <t>Enero$14572</t>
-  </si>
-  <si>
     <t>18%&amp;Abr.23</t>
   </si>
   <si>
@@ -173,6 +170,9 @@
   </si>
   <si>
     <t>Televisa&amp;202206</t>
+  </si>
+  <si>
+    <t>Febrero$14572</t>
   </si>
 </sst>
 </file>
@@ -547,12 +547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EB8524-2A96-4355-9E6C-C92FB5BDEC40}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,10 +598,10 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -619,7 +618,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -633,10 +632,10 @@
         <v>600787</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -653,7 +652,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -667,10 +666,10 @@
         <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -684,10 +683,10 @@
         <v>34</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -718,10 +717,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -735,11 +734,11 @@
         <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -753,10 +752,10 @@
         <v>600787</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -773,7 +772,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -787,10 +786,10 @@
         <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -807,7 +806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,7 +820,7 @@
         <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -858,10 +857,10 @@
         <v>19</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,10 +874,10 @@
         <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,10 +908,10 @@
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -926,10 +925,10 @@
         <v>600787</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -946,7 +945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,20 +959,14 @@
         <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E24" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F23" xr:uid="{90EB8524-2A96-4355-9E6C-C92FB5BDEC40}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Walmart"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F23" xr:uid="{90EB8524-2A96-4355-9E6C-C92FB5BDEC40}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Archivos Excel/Credenciales - Portales.xlsx
+++ b/Archivos Excel/Credenciales - Portales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\CapacitacionDesarrollo\Archivos Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB97D7-64FC-40DE-9B38-A539F9604A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106A474E-B638-4716-BE88-C578ACFCADB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{C30447A1-1B82-468F-95A4-B687C3F712A1}"/>
   </bookViews>
@@ -550,8 +550,8 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
